--- a/Turma.xlsx
+++ b/Turma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Matematica Aplicada\NovoTeste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Matematica Aplicada\DiarioDeClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2704FF4-4AD9-4D44-BE60-AAAD4505826C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54D90A-6F95-43F1-A457-2D21318D8C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EF7F0D4-1D35-4BD0-B40D-19F0447A871B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Aluno</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Presencas</t>
-  </si>
-  <si>
-    <t>Media</t>
   </si>
   <si>
     <t>Joao Pedro</t>
@@ -64,8 +61,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,15 +418,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,15 +441,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -456,14 +460,10 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2">
-        <f>(B2+C2)/2</f>
-        <v>7.5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -477,14 +477,10 @@
       <c r="E3">
         <v>200</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">(B3+C3)/2</f>
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -498,14 +494,10 @@
       <c r="E4">
         <v>200</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -519,14 +511,10 @@
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -539,13 +527,10 @@
       </c>
       <c r="E6">
         <v>200</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>